--- a/BackTest/2019-10-27 BackTest BTC.xlsx
+++ b/BackTest/2019-10-27 BackTest BTC.xlsx
@@ -4266,14 +4266,20 @@
         <v>10564000</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>10541000</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4301,14 +4307,20 @@
         <v>10562000</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>10576000</v>
+      </c>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4336,14 +4348,20 @@
         <v>10584333.33333333</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>10569000</v>
+      </c>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4371,14 +4389,20 @@
         <v>10607000</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>10608000</v>
+      </c>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4406,14 +4430,20 @@
         <v>10628333.33333333</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>10644000</v>
+      </c>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4441,14 +4471,20 @@
         <v>10639666.66666667</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>10633000</v>
+      </c>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4519,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4558,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4597,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4636,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4675,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4714,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4753,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4792,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4831,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4870,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +4909,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +4948,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +4987,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5026,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5065,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5104,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5143,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5182,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5221,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5260,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5183,7 +5299,11 @@
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5218,7 +5338,11 @@
       </c>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5253,7 +5377,11 @@
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5288,7 +5416,11 @@
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -5323,7 +5455,11 @@
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -5358,7 +5494,11 @@
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -5393,7 +5533,11 @@
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -5428,7 +5572,11 @@
       </c>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -5463,7 +5611,11 @@
       </c>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -5498,7 +5650,11 @@
       </c>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -5533,7 +5689,11 @@
       </c>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5568,7 +5728,11 @@
       </c>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -5603,7 +5767,11 @@
       </c>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -5638,7 +5806,11 @@
       </c>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -5673,7 +5845,11 @@
       </c>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -5708,7 +5884,11 @@
       </c>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5743,7 +5923,11 @@
       </c>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5778,7 +5962,11 @@
       </c>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5813,7 +6001,11 @@
       </c>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5848,7 +6040,11 @@
       </c>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5883,7 +6079,11 @@
       </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5918,7 +6118,11 @@
       </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5953,7 +6157,11 @@
       </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5988,7 +6196,11 @@
       </c>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6023,7 +6235,11 @@
       </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6058,7 +6274,11 @@
       </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6093,7 +6313,11 @@
       </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6128,7 +6352,11 @@
       </c>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6163,7 +6391,11 @@
       </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -6198,7 +6430,11 @@
       </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -6233,7 +6469,11 @@
       </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -6268,7 +6508,11 @@
       </c>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -6303,7 +6547,11 @@
       </c>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -6338,7 +6586,11 @@
       </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -6373,7 +6625,11 @@
       </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -6408,7 +6664,11 @@
       </c>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -6443,7 +6703,11 @@
       </c>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -6478,7 +6742,11 @@
       </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -6513,7 +6781,11 @@
       </c>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -6548,7 +6820,11 @@
       </c>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -6583,7 +6859,11 @@
       </c>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -6618,7 +6898,11 @@
       </c>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -6653,7 +6937,11 @@
       </c>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -6688,7 +6976,11 @@
       </c>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -6723,7 +7015,11 @@
       </c>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -6758,7 +7054,11 @@
       </c>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -6793,7 +7093,11 @@
       </c>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -6828,7 +7132,11 @@
       </c>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -6863,7 +7171,11 @@
       </c>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -6898,7 +7210,11 @@
       </c>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -6933,7 +7249,11 @@
       </c>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -6968,7 +7288,11 @@
       </c>
       <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -7003,7 +7327,11 @@
       </c>
       <c r="J189" t="inlineStr"/>
       <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -7038,7 +7366,11 @@
       </c>
       <c r="J190" t="inlineStr"/>
       <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -7073,7 +7405,11 @@
       </c>
       <c r="J191" t="inlineStr"/>
       <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -7108,7 +7444,11 @@
       </c>
       <c r="J192" t="inlineStr"/>
       <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -7143,7 +7483,11 @@
       </c>
       <c r="J193" t="inlineStr"/>
       <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -7178,7 +7522,11 @@
       </c>
       <c r="J194" t="inlineStr"/>
       <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -7213,7 +7561,11 @@
       </c>
       <c r="J195" t="inlineStr"/>
       <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -7248,7 +7600,11 @@
       </c>
       <c r="J196" t="inlineStr"/>
       <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -7283,7 +7639,11 @@
       </c>
       <c r="J197" t="inlineStr"/>
       <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -7318,7 +7678,11 @@
       </c>
       <c r="J198" t="inlineStr"/>
       <c r="K198" t="inlineStr"/>
-      <c r="L198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -7353,7 +7717,11 @@
       </c>
       <c r="J199" t="inlineStr"/>
       <c r="K199" t="inlineStr"/>
-      <c r="L199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -7388,7 +7756,11 @@
       </c>
       <c r="J200" t="inlineStr"/>
       <c r="K200" t="inlineStr"/>
-      <c r="L200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -7423,7 +7795,11 @@
       </c>
       <c r="J201" t="inlineStr"/>
       <c r="K201" t="inlineStr"/>
-      <c r="L201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -7458,7 +7834,11 @@
       </c>
       <c r="J202" t="inlineStr"/>
       <c r="K202" t="inlineStr"/>
-      <c r="L202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -7493,7 +7873,11 @@
       </c>
       <c r="J203" t="inlineStr"/>
       <c r="K203" t="inlineStr"/>
-      <c r="L203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -7528,7 +7912,11 @@
       </c>
       <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr"/>
-      <c r="L204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -7563,7 +7951,11 @@
       </c>
       <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr"/>
-      <c r="L205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -7598,7 +7990,11 @@
       </c>
       <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr"/>
-      <c r="L206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -7633,7 +8029,11 @@
       </c>
       <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr"/>
-      <c r="L207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -7668,7 +8068,11 @@
       </c>
       <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr"/>
-      <c r="L208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -7703,7 +8107,11 @@
       </c>
       <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr"/>
-      <c r="L209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -7738,7 +8146,11 @@
       </c>
       <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr"/>
-      <c r="L210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -7773,7 +8185,11 @@
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
-      <c r="L211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -7808,7 +8224,11 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -7843,7 +8263,11 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -7878,7 +8302,11 @@
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -7913,7 +8341,11 @@
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
+      <c r="L215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -7948,7 +8380,11 @@
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
+      <c r="L216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -7983,7 +8419,11 @@
       </c>
       <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
+      <c r="L217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -8018,7 +8458,11 @@
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
+      <c r="L218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -8053,7 +8497,11 @@
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
+      <c r="L219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -8088,7 +8536,11 @@
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
+      <c r="L220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -8123,7 +8575,11 @@
       </c>
       <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
+      <c r="L221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -8158,7 +8614,11 @@
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
+      <c r="L222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -8193,7 +8653,11 @@
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
+      <c r="L223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -8228,7 +8692,11 @@
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
+      <c r="L224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -8263,7 +8731,11 @@
       </c>
       <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
+      <c r="L225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -8298,7 +8770,11 @@
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
+      <c r="L226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -8333,7 +8809,11 @@
       </c>
       <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr"/>
-      <c r="L227" t="inlineStr"/>
+      <c r="L227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -8368,7 +8848,11 @@
       </c>
       <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr"/>
-      <c r="L228" t="inlineStr"/>
+      <c r="L228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -8403,7 +8887,11 @@
       </c>
       <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr"/>
-      <c r="L229" t="inlineStr"/>
+      <c r="L229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -8438,7 +8926,11 @@
       </c>
       <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr"/>
-      <c r="L230" t="inlineStr"/>
+      <c r="L230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -8473,7 +8965,11 @@
       </c>
       <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr"/>
-      <c r="L231" t="inlineStr"/>
+      <c r="L231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -8508,7 +9004,11 @@
       </c>
       <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr"/>
-      <c r="L232" t="inlineStr"/>
+      <c r="L232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -8543,7 +9043,11 @@
       </c>
       <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr"/>
-      <c r="L233" t="inlineStr"/>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -8578,7 +9082,11 @@
       </c>
       <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr"/>
-      <c r="L234" t="inlineStr"/>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -8613,7 +9121,11 @@
       </c>
       <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr"/>
-      <c r="L235" t="inlineStr"/>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -8648,7 +9160,11 @@
       </c>
       <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr"/>
-      <c r="L236" t="inlineStr"/>
+      <c r="L236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -8683,7 +9199,11 @@
       </c>
       <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr"/>
-      <c r="L237" t="inlineStr"/>
+      <c r="L237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -8718,7 +9238,11 @@
       </c>
       <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
-      <c r="L238" t="inlineStr"/>
+      <c r="L238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -8753,7 +9277,11 @@
       </c>
       <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr"/>
-      <c r="L239" t="inlineStr"/>
+      <c r="L239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -8788,7 +9316,11 @@
       </c>
       <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr"/>
-      <c r="L240" t="inlineStr"/>
+      <c r="L240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -8823,7 +9355,11 @@
       </c>
       <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr"/>
-      <c r="L241" t="inlineStr"/>
+      <c r="L241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -8858,7 +9394,11 @@
       </c>
       <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
-      <c r="L242" t="inlineStr"/>
+      <c r="L242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -8893,7 +9433,11 @@
       </c>
       <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr"/>
-      <c r="L243" t="inlineStr"/>
+      <c r="L243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -8928,7 +9472,11 @@
       </c>
       <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr"/>
-      <c r="L244" t="inlineStr"/>
+      <c r="L244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -8963,7 +9511,11 @@
       </c>
       <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr"/>
-      <c r="L245" t="inlineStr"/>
+      <c r="L245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -8998,7 +9550,11 @@
       </c>
       <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr"/>
-      <c r="L246" t="inlineStr"/>
+      <c r="L246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -9033,7 +9589,11 @@
       </c>
       <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr"/>
-      <c r="L247" t="inlineStr"/>
+      <c r="L247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -9068,7 +9628,11 @@
       </c>
       <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr"/>
-      <c r="L248" t="inlineStr"/>
+      <c r="L248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -9103,7 +9667,11 @@
       </c>
       <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr"/>
-      <c r="L249" t="inlineStr"/>
+      <c r="L249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -9138,7 +9706,11 @@
       </c>
       <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr"/>
-      <c r="L250" t="inlineStr"/>
+      <c r="L250" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -9173,7 +9745,11 @@
       </c>
       <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr"/>
-      <c r="L251" t="inlineStr"/>
+      <c r="L251" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -9208,7 +9784,11 @@
       </c>
       <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr"/>
-      <c r="L252" t="inlineStr"/>
+      <c r="L252" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -9243,7 +9823,11 @@
       </c>
       <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr"/>
-      <c r="L253" t="inlineStr"/>
+      <c r="L253" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -9278,7 +9862,11 @@
       </c>
       <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr"/>
-      <c r="L254" t="inlineStr"/>
+      <c r="L254" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -9313,7 +9901,11 @@
       </c>
       <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr"/>
-      <c r="L255" t="inlineStr"/>
+      <c r="L255" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -9348,7 +9940,11 @@
       </c>
       <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr"/>
-      <c r="L256" t="inlineStr"/>
+      <c r="L256" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -9383,7 +9979,11 @@
       </c>
       <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr"/>
-      <c r="L257" t="inlineStr"/>
+      <c r="L257" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -9418,7 +10018,11 @@
       </c>
       <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr"/>
-      <c r="L258" t="inlineStr"/>
+      <c r="L258" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -9453,7 +10057,11 @@
       </c>
       <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr"/>
-      <c r="L259" t="inlineStr"/>
+      <c r="L259" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -9488,7 +10096,11 @@
       </c>
       <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr"/>
-      <c r="L260" t="inlineStr"/>
+      <c r="L260" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -9523,7 +10135,11 @@
       </c>
       <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr"/>
-      <c r="L261" t="inlineStr"/>
+      <c r="L261" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -9558,7 +10174,11 @@
       </c>
       <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr"/>
-      <c r="L262" t="inlineStr"/>
+      <c r="L262" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -9593,7 +10213,11 @@
       </c>
       <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr"/>
-      <c r="L263" t="inlineStr"/>
+      <c r="L263" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -9628,7 +10252,11 @@
       </c>
       <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr"/>
-      <c r="L264" t="inlineStr"/>
+      <c r="L264" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -9663,7 +10291,11 @@
       </c>
       <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr"/>
-      <c r="L265" t="inlineStr"/>
+      <c r="L265" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -9698,7 +10330,11 @@
       </c>
       <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr"/>
-      <c r="L266" t="inlineStr"/>
+      <c r="L266" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -9733,7 +10369,11 @@
       </c>
       <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr"/>
-      <c r="L267" t="inlineStr"/>
+      <c r="L267" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -9768,7 +10408,11 @@
       </c>
       <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr"/>
-      <c r="L268" t="inlineStr"/>
+      <c r="L268" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -9803,7 +10447,11 @@
       </c>
       <c r="J269" t="inlineStr"/>
       <c r="K269" t="inlineStr"/>
-      <c r="L269" t="inlineStr"/>
+      <c r="L269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -9838,7 +10486,11 @@
       </c>
       <c r="J270" t="inlineStr"/>
       <c r="K270" t="inlineStr"/>
-      <c r="L270" t="inlineStr"/>
+      <c r="L270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -9873,7 +10525,11 @@
       </c>
       <c r="J271" t="inlineStr"/>
       <c r="K271" t="inlineStr"/>
-      <c r="L271" t="inlineStr"/>
+      <c r="L271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -9908,7 +10564,11 @@
       </c>
       <c r="J272" t="inlineStr"/>
       <c r="K272" t="inlineStr"/>
-      <c r="L272" t="inlineStr"/>
+      <c r="L272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -9943,7 +10603,11 @@
       </c>
       <c r="J273" t="inlineStr"/>
       <c r="K273" t="inlineStr"/>
-      <c r="L273" t="inlineStr"/>
+      <c r="L273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -9978,7 +10642,11 @@
       </c>
       <c r="J274" t="inlineStr"/>
       <c r="K274" t="inlineStr"/>
-      <c r="L274" t="inlineStr"/>
+      <c r="L274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -10013,7 +10681,11 @@
       </c>
       <c r="J275" t="inlineStr"/>
       <c r="K275" t="inlineStr"/>
-      <c r="L275" t="inlineStr"/>
+      <c r="L275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -10048,7 +10720,11 @@
       </c>
       <c r="J276" t="inlineStr"/>
       <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
+      <c r="L276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -10083,7 +10759,11 @@
       </c>
       <c r="J277" t="inlineStr"/>
       <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
+      <c r="L277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -10118,7 +10798,11 @@
       </c>
       <c r="J278" t="inlineStr"/>
       <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -10153,7 +10837,11 @@
       </c>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
+      <c r="L279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -10188,7 +10876,11 @@
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
+      <c r="L280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -10223,7 +10915,11 @@
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
+      <c r="L281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -10258,7 +10954,11 @@
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
+      <c r="L282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -10293,7 +10993,11 @@
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
+      <c r="L283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -10328,7 +11032,11 @@
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
+      <c r="L284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -10363,7 +11071,11 @@
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
+      <c r="L285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -10398,7 +11110,11 @@
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
+      <c r="L286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -10433,7 +11149,11 @@
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
+      <c r="L287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -10468,7 +11188,11 @@
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
+      <c r="L288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -10503,7 +11227,11 @@
       </c>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
+      <c r="L289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -10538,7 +11266,11 @@
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
+      <c r="L290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -10573,7 +11305,11 @@
       </c>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
+      <c r="L291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -10608,7 +11344,11 @@
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
+      <c r="L292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -10643,7 +11383,11 @@
       </c>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
+      <c r="L293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -10678,7 +11422,11 @@
       </c>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
+      <c r="L294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -10713,7 +11461,11 @@
       </c>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
+      <c r="L295" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -10748,7 +11500,11 @@
       </c>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
+      <c r="L296" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -10783,7 +11539,11 @@
       </c>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
+      <c r="L297" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -10818,7 +11578,11 @@
       </c>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
+      <c r="L298" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -10853,7 +11617,11 @@
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
+      <c r="L299" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -10881,18 +11649,16 @@
         <v>10486000</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>10492000</v>
-      </c>
+      <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M300" t="n">
@@ -10922,14 +11688,12 @@
         <v>10491333.33333333</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>10490000</v>
-      </c>
+      <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
@@ -10963,14 +11727,12 @@
         <v>10497333.33333333</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>10499000</v>
-      </c>
+      <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
@@ -11004,14 +11766,12 @@
         <v>10497000</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>10504000</v>
-      </c>
+      <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
@@ -11045,14 +11805,12 @@
         <v>10485666.66666667</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>10490000</v>
-      </c>
+      <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
@@ -11086,14 +11844,12 @@
         <v>10473666.66666667</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>10462000</v>
-      </c>
+      <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
@@ -11127,14 +11883,12 @@
         <v>10452333.33333333</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>10458000</v>
-      </c>
+      <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
@@ -11168,14 +11922,12 @@
         <v>10440666.66666667</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>10425000</v>
-      </c>
+      <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
@@ -11209,14 +11961,12 @@
         <v>10436000</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>10439000</v>
-      </c>
+      <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
@@ -11256,7 +12006,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="n">
-        <v>10456000</v>
+        <v>10454000</v>
       </c>
       <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
@@ -11297,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="n">
-        <v>10453000</v>
+        <v>10457000</v>
       </c>
       <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
@@ -11338,7 +12088,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="n">
-        <v>10435000</v>
+        <v>10427000</v>
       </c>
       <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
@@ -11379,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="n">
-        <v>10440000</v>
+        <v>10435000</v>
       </c>
       <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
@@ -11455,14 +12205,12 @@
         <v>10443000</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>10430000</v>
-      </c>
+      <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
@@ -11496,14 +12244,12 @@
         <v>10446000</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>10450000</v>
-      </c>
+      <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
@@ -11537,14 +12283,12 @@
         <v>10457000</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>10461000</v>
-      </c>
+      <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
@@ -11578,14 +12322,12 @@
         <v>10464666.66666667</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
       </c>
-      <c r="J317" t="n">
-        <v>10458000</v>
-      </c>
+      <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
@@ -11619,14 +12361,12 @@
         <v>10478000</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
       </c>
-      <c r="J318" t="n">
-        <v>10484000</v>
-      </c>
+      <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
@@ -11660,14 +12400,12 @@
         <v>10488333.33333333</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
       </c>
-      <c r="J319" t="n">
-        <v>10492000</v>
-      </c>
+      <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
@@ -11701,14 +12439,12 @@
         <v>10488666.66666667</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
       </c>
-      <c r="J320" t="n">
-        <v>10484000</v>
-      </c>
+      <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
@@ -11742,14 +12478,12 @@
         <v>10476666.66666667</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I321" t="n">
         <v>0</v>
       </c>
-      <c r="J321" t="n">
-        <v>10480000</v>
-      </c>
+      <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
@@ -11783,14 +12517,12 @@
         <v>10471000</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
       </c>
-      <c r="J322" t="n">
-        <v>10470000</v>
-      </c>
+      <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
@@ -11824,14 +12556,12 @@
         <v>10468666.66666667</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="n">
-        <v>10471000</v>
-      </c>
+      <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
@@ -11865,14 +12595,12 @@
         <v>10471000</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I324" t="n">
         <v>0</v>
       </c>
-      <c r="J324" t="n">
-        <v>10474000</v>
-      </c>
+      <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
@@ -11906,14 +12634,12 @@
         <v>10471666.66666667</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
       </c>
-      <c r="J325" t="n">
-        <v>10467000</v>
-      </c>
+      <c r="J325" t="inlineStr"/>
       <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
@@ -11947,14 +12673,12 @@
         <v>10478333.33333333</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
       </c>
-      <c r="J326" t="n">
-        <v>10476000</v>
-      </c>
+      <c r="J326" t="inlineStr"/>
       <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
@@ -11988,14 +12712,12 @@
         <v>10492000</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
       </c>
-      <c r="J327" t="n">
-        <v>10497000</v>
-      </c>
+      <c r="J327" t="inlineStr"/>
       <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
@@ -12029,14 +12751,12 @@
         <v>10497666.66666667</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I328" t="n">
         <v>0</v>
       </c>
-      <c r="J328" t="n">
-        <v>10504000</v>
-      </c>
+      <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
@@ -12070,14 +12790,12 @@
         <v>10493000</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
       </c>
-      <c r="J329" t="n">
-        <v>10491000</v>
-      </c>
+      <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
@@ -12111,14 +12829,12 @@
         <v>10484666.66666667</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
       </c>
-      <c r="J330" t="n">
-        <v>10480000</v>
-      </c>
+      <c r="J330" t="inlineStr"/>
       <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
@@ -12152,14 +12868,12 @@
         <v>10485666.66666667</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I331" t="n">
         <v>0</v>
       </c>
-      <c r="J331" t="n">
-        <v>10491000</v>
-      </c>
+      <c r="J331" t="inlineStr"/>
       <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
@@ -12193,14 +12907,12 @@
         <v>10493333.33333333</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
       </c>
-      <c r="J332" t="n">
-        <v>10492000</v>
-      </c>
+      <c r="J332" t="inlineStr"/>
       <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
@@ -12234,14 +12946,12 @@
         <v>10500666.66666667</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
       </c>
-      <c r="J333" t="n">
-        <v>10511000</v>
-      </c>
+      <c r="J333" t="inlineStr"/>
       <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
@@ -12275,14 +12985,12 @@
         <v>10503666.66666667</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" t="n">
         <v>0</v>
       </c>
-      <c r="J334" t="n">
-        <v>10505000</v>
-      </c>
+      <c r="J334" t="inlineStr"/>
       <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
@@ -12316,14 +13024,12 @@
         <v>10505000</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
       </c>
-      <c r="J335" t="n">
-        <v>10501000</v>
-      </c>
+      <c r="J335" t="inlineStr"/>
       <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
@@ -12357,14 +13063,12 @@
         <v>10511666.66666667</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I336" t="n">
         <v>0</v>
       </c>
-      <c r="J336" t="n">
-        <v>10510000</v>
-      </c>
+      <c r="J336" t="inlineStr"/>
       <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
@@ -12398,14 +13102,12 @@
         <v>10518666.66666667</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
       </c>
-      <c r="J337" t="n">
-        <v>10524000</v>
-      </c>
+      <c r="J337" t="inlineStr"/>
       <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
@@ -12439,14 +13141,12 @@
         <v>10522000</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" t="n">
         <v>0</v>
       </c>
-      <c r="J338" t="n">
-        <v>10524000</v>
-      </c>
+      <c r="J338" t="inlineStr"/>
       <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
@@ -12480,14 +13180,12 @@
         <v>10520000</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
       </c>
-      <c r="J339" t="n">
-        <v>10517000</v>
-      </c>
+      <c r="J339" t="inlineStr"/>
       <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
@@ -12521,14 +13219,12 @@
         <v>10514666.66666667</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
       </c>
-      <c r="J340" t="n">
-        <v>10519000</v>
-      </c>
+      <c r="J340" t="inlineStr"/>
       <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
@@ -12562,14 +13258,12 @@
         <v>10516333.33333333</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I341" t="n">
         <v>0</v>
       </c>
-      <c r="J341" t="n">
-        <v>10515000</v>
-      </c>
+      <c r="J341" t="inlineStr"/>
       <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
@@ -12603,14 +13297,12 @@
         <v>10513000</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I342" t="n">
         <v>0</v>
       </c>
-      <c r="J342" t="n">
-        <v>10517000</v>
-      </c>
+      <c r="J342" t="inlineStr"/>
       <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
@@ -12644,14 +13336,12 @@
         <v>10516000</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
       </c>
-      <c r="J343" t="n">
-        <v>10511000</v>
-      </c>
+      <c r="J343" t="inlineStr"/>
       <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
@@ -12685,14 +13375,12 @@
         <v>10514666.66666667</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I344" t="n">
         <v>0</v>
       </c>
-      <c r="J344" t="n">
-        <v>10517000</v>
-      </c>
+      <c r="J344" t="inlineStr"/>
       <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
@@ -12726,14 +13414,12 @@
         <v>10514666.66666667</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I345" t="n">
         <v>0</v>
       </c>
-      <c r="J345" t="n">
-        <v>10518000</v>
-      </c>
+      <c r="J345" t="inlineStr"/>
       <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
@@ -12767,14 +13453,12 @@
         <v>10513666.66666667</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
       </c>
-      <c r="J346" t="n">
-        <v>10513000</v>
-      </c>
+      <c r="J346" t="inlineStr"/>
       <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
@@ -12808,14 +13492,12 @@
         <v>10514666.66666667</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
       </c>
-      <c r="J347" t="n">
-        <v>10513000</v>
-      </c>
+      <c r="J347" t="inlineStr"/>
       <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
@@ -12849,14 +13531,12 @@
         <v>10523000</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
       </c>
-      <c r="J348" t="n">
-        <v>10521000</v>
-      </c>
+      <c r="J348" t="inlineStr"/>
       <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
@@ -12890,14 +13570,12 @@
         <v>10534666.66666667</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
       </c>
-      <c r="J349" t="n">
-        <v>10539000</v>
-      </c>
+      <c r="J349" t="inlineStr"/>
       <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
@@ -12931,14 +13609,12 @@
         <v>10540000</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
       </c>
-      <c r="J350" t="n">
-        <v>10550000</v>
-      </c>
+      <c r="J350" t="inlineStr"/>
       <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
@@ -12972,14 +13648,12 @@
         <v>10539333.33333333</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
       </c>
-      <c r="J351" t="n">
-        <v>10538000</v>
-      </c>
+      <c r="J351" t="inlineStr"/>
       <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
@@ -13013,14 +13687,12 @@
         <v>10539666.66666667</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
       </c>
-      <c r="J352" t="n">
-        <v>10533000</v>
-      </c>
+      <c r="J352" t="inlineStr"/>
       <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
@@ -13054,14 +13726,12 @@
         <v>10543333.33333333</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
       </c>
-      <c r="J353" t="n">
-        <v>10558000</v>
-      </c>
+      <c r="J353" t="inlineStr"/>
       <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
@@ -13095,14 +13765,12 @@
         <v>10551666.66666667</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
       </c>
-      <c r="J354" t="n">
-        <v>10540000</v>
-      </c>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
@@ -13136,14 +13804,12 @@
         <v>10552666.66666667</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I355" t="n">
         <v>0</v>
       </c>
-      <c r="J355" t="n">
-        <v>10557000</v>
-      </c>
+      <c r="J355" t="inlineStr"/>
       <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
@@ -13177,14 +13843,12 @@
         <v>10553666.66666667</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="n">
-        <v>10553000</v>
-      </c>
+      <c r="J356" t="inlineStr"/>
       <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
@@ -13764,14 +14428,12 @@
         <v>10533333.33333333</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
       </c>
-      <c r="J371" t="n">
-        <v>10522000</v>
-      </c>
+      <c r="J371" t="inlineStr"/>
       <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
@@ -13805,14 +14467,12 @@
         <v>10551000</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I372" t="n">
         <v>0</v>
       </c>
-      <c r="J372" t="n">
-        <v>10560000</v>
-      </c>
+      <c r="J372" t="inlineStr"/>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
@@ -13846,14 +14506,12 @@
         <v>10583333.33333333</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I373" t="n">
         <v>0</v>
       </c>
-      <c r="J373" t="n">
-        <v>10585000</v>
-      </c>
+      <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
@@ -24300,12 +24958,14 @@
         <v>10639666.66666667</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I641" t="n">
         <v>0</v>
       </c>
-      <c r="J641" t="inlineStr"/>
+      <c r="J641" t="n">
+        <v>10642000</v>
+      </c>
       <c r="K641" t="inlineStr"/>
       <c r="L641" t="inlineStr">
         <is>
@@ -24339,12 +24999,14 @@
         <v>10640000</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I642" t="n">
         <v>0</v>
       </c>
-      <c r="J642" t="inlineStr"/>
+      <c r="J642" t="n">
+        <v>10642000</v>
+      </c>
       <c r="K642" t="inlineStr"/>
       <c r="L642" t="inlineStr">
         <is>
@@ -24378,12 +25040,14 @@
         <v>10638333.33333333</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I643" t="n">
         <v>0</v>
       </c>
-      <c r="J643" t="inlineStr"/>
+      <c r="J643" t="n">
+        <v>10636000</v>
+      </c>
       <c r="K643" t="inlineStr"/>
       <c r="L643" t="inlineStr">
         <is>
@@ -24417,12 +25081,14 @@
         <v>10640000</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I644" t="n">
         <v>0</v>
       </c>
-      <c r="J644" t="inlineStr"/>
+      <c r="J644" t="n">
+        <v>10637000</v>
+      </c>
       <c r="K644" t="inlineStr"/>
       <c r="L644" t="inlineStr">
         <is>
@@ -24456,12 +25122,14 @@
         <v>10641333.33333333</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I645" t="n">
         <v>0</v>
       </c>
-      <c r="J645" t="inlineStr"/>
+      <c r="J645" t="n">
+        <v>10647000</v>
+      </c>
       <c r="K645" t="inlineStr"/>
       <c r="L645" t="inlineStr">
         <is>
@@ -24495,12 +25163,14 @@
         <v>10643333.33333333</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I646" t="n">
         <v>0</v>
       </c>
-      <c r="J646" t="inlineStr"/>
+      <c r="J646" t="n">
+        <v>10640000</v>
+      </c>
       <c r="K646" t="inlineStr"/>
       <c r="L646" t="inlineStr">
         <is>
@@ -24534,12 +25204,14 @@
         <v>10638000</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I647" t="n">
         <v>0</v>
       </c>
-      <c r="J647" t="inlineStr"/>
+      <c r="J647" t="n">
+        <v>10643000</v>
+      </c>
       <c r="K647" t="inlineStr"/>
       <c r="L647" t="inlineStr">
         <is>
@@ -24573,12 +25245,14 @@
         <v>10634666.66666667</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I648" t="n">
         <v>0</v>
       </c>
-      <c r="J648" t="inlineStr"/>
+      <c r="J648" t="n">
+        <v>10631000</v>
+      </c>
       <c r="K648" t="inlineStr"/>
       <c r="L648" t="inlineStr">
         <is>
@@ -24612,12 +25286,14 @@
         <v>10630333.33333333</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I649" t="n">
         <v>0</v>
       </c>
-      <c r="J649" t="inlineStr"/>
+      <c r="J649" t="n">
+        <v>10630000</v>
+      </c>
       <c r="K649" t="inlineStr"/>
       <c r="L649" t="inlineStr">
         <is>
@@ -46845,16 +47521,18 @@
         <v>0</v>
       </c>
       <c r="I1219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1219" t="inlineStr"/>
       <c r="K1219" t="inlineStr"/>
       <c r="L1219" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M1219" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="M1219" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1220">
       <c r="A1220" s="1" t="n">
@@ -46882,11 +47560,15 @@
         <v>0</v>
       </c>
       <c r="I1220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1220" t="inlineStr"/>
       <c r="K1220" t="inlineStr"/>
-      <c r="L1220" t="inlineStr"/>
+      <c r="L1220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1220" t="n">
         <v>1</v>
       </c>
@@ -46921,7 +47603,11 @@
       </c>
       <c r="J1221" t="inlineStr"/>
       <c r="K1221" t="inlineStr"/>
-      <c r="L1221" t="inlineStr"/>
+      <c r="L1221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1221" t="n">
         <v>1</v>
       </c>
@@ -46956,7 +47642,11 @@
       </c>
       <c r="J1222" t="inlineStr"/>
       <c r="K1222" t="inlineStr"/>
-      <c r="L1222" t="inlineStr"/>
+      <c r="L1222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1222" t="n">
         <v>1</v>
       </c>
@@ -46991,7 +47681,11 @@
       </c>
       <c r="J1223" t="inlineStr"/>
       <c r="K1223" t="inlineStr"/>
-      <c r="L1223" t="inlineStr"/>
+      <c r="L1223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1223" t="n">
         <v>1</v>
       </c>
@@ -47026,7 +47720,11 @@
       </c>
       <c r="J1224" t="inlineStr"/>
       <c r="K1224" t="inlineStr"/>
-      <c r="L1224" t="inlineStr"/>
+      <c r="L1224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1224" t="n">
         <v>1</v>
       </c>
@@ -47061,7 +47759,11 @@
       </c>
       <c r="J1225" t="inlineStr"/>
       <c r="K1225" t="inlineStr"/>
-      <c r="L1225" t="inlineStr"/>
+      <c r="L1225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1225" t="n">
         <v>1</v>
       </c>
@@ -47096,7 +47798,11 @@
       </c>
       <c r="J1226" t="inlineStr"/>
       <c r="K1226" t="inlineStr"/>
-      <c r="L1226" t="inlineStr"/>
+      <c r="L1226" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1226" t="n">
         <v>1</v>
       </c>
@@ -47131,7 +47837,11 @@
       </c>
       <c r="J1227" t="inlineStr"/>
       <c r="K1227" t="inlineStr"/>
-      <c r="L1227" t="inlineStr"/>
+      <c r="L1227" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1227" t="n">
         <v>1</v>
       </c>
@@ -47166,7 +47876,11 @@
       </c>
       <c r="J1228" t="inlineStr"/>
       <c r="K1228" t="inlineStr"/>
-      <c r="L1228" t="inlineStr"/>
+      <c r="L1228" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1228" t="n">
         <v>1</v>
       </c>
@@ -47201,7 +47915,11 @@
       </c>
       <c r="J1229" t="inlineStr"/>
       <c r="K1229" t="inlineStr"/>
-      <c r="L1229" t="inlineStr"/>
+      <c r="L1229" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1229" t="n">
         <v>1</v>
       </c>
@@ -47236,7 +47954,11 @@
       </c>
       <c r="J1230" t="inlineStr"/>
       <c r="K1230" t="inlineStr"/>
-      <c r="L1230" t="inlineStr"/>
+      <c r="L1230" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1230" t="n">
         <v>1</v>
       </c>
@@ -47271,7 +47993,11 @@
       </c>
       <c r="J1231" t="inlineStr"/>
       <c r="K1231" t="inlineStr"/>
-      <c r="L1231" t="inlineStr"/>
+      <c r="L1231" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1231" t="n">
         <v>1</v>
       </c>
@@ -47306,7 +48032,11 @@
       </c>
       <c r="J1232" t="inlineStr"/>
       <c r="K1232" t="inlineStr"/>
-      <c r="L1232" t="inlineStr"/>
+      <c r="L1232" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1232" t="n">
         <v>1</v>
       </c>
@@ -47341,7 +48071,11 @@
       </c>
       <c r="J1233" t="inlineStr"/>
       <c r="K1233" t="inlineStr"/>
-      <c r="L1233" t="inlineStr"/>
+      <c r="L1233" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1233" t="n">
         <v>1</v>
       </c>
@@ -47376,7 +48110,11 @@
       </c>
       <c r="J1234" t="inlineStr"/>
       <c r="K1234" t="inlineStr"/>
-      <c r="L1234" t="inlineStr"/>
+      <c r="L1234" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1234" t="n">
         <v>1</v>
       </c>
@@ -47411,7 +48149,11 @@
       </c>
       <c r="J1235" t="inlineStr"/>
       <c r="K1235" t="inlineStr"/>
-      <c r="L1235" t="inlineStr"/>
+      <c r="L1235" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1235" t="n">
         <v>1</v>
       </c>
@@ -47446,7 +48188,11 @@
       </c>
       <c r="J1236" t="inlineStr"/>
       <c r="K1236" t="inlineStr"/>
-      <c r="L1236" t="inlineStr"/>
+      <c r="L1236" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1236" t="n">
         <v>1</v>
       </c>
@@ -47481,7 +48227,11 @@
       </c>
       <c r="J1237" t="inlineStr"/>
       <c r="K1237" t="inlineStr"/>
-      <c r="L1237" t="inlineStr"/>
+      <c r="L1237" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1237" t="n">
         <v>1</v>
       </c>
@@ -47516,7 +48266,11 @@
       </c>
       <c r="J1238" t="inlineStr"/>
       <c r="K1238" t="inlineStr"/>
-      <c r="L1238" t="inlineStr"/>
+      <c r="L1238" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1238" t="n">
         <v>1</v>
       </c>
@@ -47551,7 +48305,11 @@
       </c>
       <c r="J1239" t="inlineStr"/>
       <c r="K1239" t="inlineStr"/>
-      <c r="L1239" t="inlineStr"/>
+      <c r="L1239" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1239" t="n">
         <v>1</v>
       </c>
@@ -47586,7 +48344,11 @@
       </c>
       <c r="J1240" t="inlineStr"/>
       <c r="K1240" t="inlineStr"/>
-      <c r="L1240" t="inlineStr"/>
+      <c r="L1240" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1240" t="n">
         <v>1</v>
       </c>
@@ -47621,7 +48383,11 @@
       </c>
       <c r="J1241" t="inlineStr"/>
       <c r="K1241" t="inlineStr"/>
-      <c r="L1241" t="inlineStr"/>
+      <c r="L1241" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1241" t="n">
         <v>1</v>
       </c>
@@ -47656,7 +48422,11 @@
       </c>
       <c r="J1242" t="inlineStr"/>
       <c r="K1242" t="inlineStr"/>
-      <c r="L1242" t="inlineStr"/>
+      <c r="L1242" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1242" t="n">
         <v>1</v>
       </c>
@@ -47691,7 +48461,11 @@
       </c>
       <c r="J1243" t="inlineStr"/>
       <c r="K1243" t="inlineStr"/>
-      <c r="L1243" t="inlineStr"/>
+      <c r="L1243" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1243" t="n">
         <v>1</v>
       </c>
@@ -47726,7 +48500,11 @@
       </c>
       <c r="J1244" t="inlineStr"/>
       <c r="K1244" t="inlineStr"/>
-      <c r="L1244" t="inlineStr"/>
+      <c r="L1244" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1244" t="n">
         <v>1</v>
       </c>
@@ -47761,7 +48539,11 @@
       </c>
       <c r="J1245" t="inlineStr"/>
       <c r="K1245" t="inlineStr"/>
-      <c r="L1245" t="inlineStr"/>
+      <c r="L1245" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1245" t="n">
         <v>1</v>
       </c>
@@ -47796,7 +48578,11 @@
       </c>
       <c r="J1246" t="inlineStr"/>
       <c r="K1246" t="inlineStr"/>
-      <c r="L1246" t="inlineStr"/>
+      <c r="L1246" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1246" t="n">
         <v>1</v>
       </c>
@@ -47831,7 +48617,11 @@
       </c>
       <c r="J1247" t="inlineStr"/>
       <c r="K1247" t="inlineStr"/>
-      <c r="L1247" t="inlineStr"/>
+      <c r="L1247" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1247" t="n">
         <v>1</v>
       </c>
@@ -47866,7 +48656,11 @@
       </c>
       <c r="J1248" t="inlineStr"/>
       <c r="K1248" t="inlineStr"/>
-      <c r="L1248" t="inlineStr"/>
+      <c r="L1248" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1248" t="n">
         <v>1</v>
       </c>
@@ -47901,7 +48695,11 @@
       </c>
       <c r="J1249" t="inlineStr"/>
       <c r="K1249" t="inlineStr"/>
-      <c r="L1249" t="inlineStr"/>
+      <c r="L1249" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M1249" t="n">
         <v>1</v>
       </c>
@@ -47932,14 +48730,16 @@
         <v>0</v>
       </c>
       <c r="I1250" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1250" t="inlineStr"/>
       <c r="K1250" t="inlineStr"/>
-      <c r="L1250" t="inlineStr"/>
-      <c r="M1250" t="n">
-        <v>1</v>
-      </c>
+      <c r="L1250" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M1250" t="inlineStr"/>
     </row>
     <row r="1251">
       <c r="A1251" s="1" t="n">
@@ -47967,7 +48767,7 @@
         <v>0</v>
       </c>
       <c r="I1251" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1251" t="inlineStr"/>
       <c r="K1251" t="inlineStr"/>
@@ -48002,7 +48802,7 @@
         <v>0</v>
       </c>
       <c r="I1252" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1252" t="inlineStr"/>
       <c r="K1252" t="inlineStr"/>
@@ -48037,7 +48837,7 @@
         <v>0</v>
       </c>
       <c r="I1253" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J1253" t="inlineStr"/>
       <c r="K1253" t="inlineStr"/>
